--- a/data/fitness_development/adulttraits_flydev.xlsx
+++ b/data/fitness_development/adulttraits_flydev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED1B52-9835-5040-A21A-0D39CE99234B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09312CEC-5E02-384B-A229-BCCC3272D536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{13590F98-12EA-534D-BCE5-65E2FDB3EBB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -112,8 +112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FC156D9-9A76-7145-8C10-36E6FAEFFC09}" name="Table1" displayName="Table1" ref="A1:E193" totalsRowShown="0">
-  <autoFilter ref="A1:E193" xr:uid="{7FC156D9-9A76-7145-8C10-36E6FAEFFC09}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7FC156D9-9A76-7145-8C10-36E6FAEFFC09}" name="Table1" displayName="Table1" ref="A1:E449" totalsRowShown="0">
+  <autoFilter ref="A1:E449" xr:uid="{7FC156D9-9A76-7145-8C10-36E6FAEFFC09}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2B2A7E-A6ED-1140-AB0B-8775F6A9CDFA}">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="91" workbookViewId="0">
+      <selection activeCell="I428" sqref="I428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3742,6 +3742,4358 @@
         <v>292</v>
       </c>
     </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+      <c r="E195">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>3</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>12</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>14</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>15</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>4</v>
+      </c>
+      <c r="E208">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>16</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209">
+        <v>4</v>
+      </c>
+      <c r="E209">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
+      </c>
+      <c r="E214">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>7</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>8</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+      <c r="E217">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+      <c r="E219">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>11</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>12</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>13</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+      <c r="D222">
+        <v>5</v>
+      </c>
+      <c r="E222">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>15</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>16</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>7</v>
+      </c>
+      <c r="E227">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+      <c r="D228">
+        <v>4</v>
+      </c>
+      <c r="E228">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>4</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>9</v>
+      </c>
+      <c r="E229">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>10</v>
+      </c>
+      <c r="D230">
+        <v>7</v>
+      </c>
+      <c r="E230">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>8</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>4</v>
+      </c>
+      <c r="E233">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234">
+        <v>6</v>
+      </c>
+      <c r="E234">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="E235">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+      <c r="D236">
+        <v>4</v>
+      </c>
+      <c r="E236">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>12</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>6</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>13</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238">
+        <v>11</v>
+      </c>
+      <c r="E238">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>9</v>
+      </c>
+      <c r="D239">
+        <v>6</v>
+      </c>
+      <c r="E239">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>15</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>9</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>16</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>6</v>
+      </c>
+      <c r="D241">
+        <v>6</v>
+      </c>
+      <c r="E241">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>2</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>4</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2</v>
+      </c>
+      <c r="C244">
+        <v>9</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>4</v>
+      </c>
+      <c r="B245" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>4</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>8</v>
+      </c>
+      <c r="D246">
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+      <c r="E247">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>7</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>7</v>
+      </c>
+      <c r="E248">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <v>7</v>
+      </c>
+      <c r="D249">
+        <v>4</v>
+      </c>
+      <c r="E249">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250">
+        <v>6</v>
+      </c>
+      <c r="E250">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>7</v>
+      </c>
+      <c r="E251">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+      <c r="E252">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>4</v>
+      </c>
+      <c r="E253">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>13</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254">
+        <v>8</v>
+      </c>
+      <c r="D254">
+        <v>3</v>
+      </c>
+      <c r="E254">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>14</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>6</v>
+      </c>
+      <c r="D255">
+        <v>7</v>
+      </c>
+      <c r="E255">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <v>9</v>
+      </c>
+      <c r="E256">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>16</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>6</v>
+      </c>
+      <c r="E259">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <v>4</v>
+      </c>
+      <c r="E260">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>6</v>
+      </c>
+      <c r="E261">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>6</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>7</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>8</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>9</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>3</v>
+      </c>
+      <c r="E266">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>11</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+      <c r="E268">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>12</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>4</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
+      </c>
+      <c r="E269">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>13</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>13</v>
+      </c>
+      <c r="D270">
+        <v>9</v>
+      </c>
+      <c r="E270">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>14</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>15</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>6</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>16</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+      <c r="E273">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>6</v>
+      </c>
+      <c r="E276">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278">
+        <v>5</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>11</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>7</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+      <c r="E280">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>8</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>3</v>
+      </c>
+      <c r="E281">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>9</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2</v>
+      </c>
+      <c r="C282">
+        <v>7</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>10</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>12</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>13</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2</v>
+      </c>
+      <c r="C286">
+        <v>7</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
+      </c>
+      <c r="E286">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>14</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <v>4</v>
+      </c>
+      <c r="E287">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>15</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>7</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>16</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>7</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+      <c r="E291">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>4</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>4</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>6</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>7</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>8</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>9</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>3</v>
+      </c>
+      <c r="D298">
+        <v>6</v>
+      </c>
+      <c r="E298">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>10</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>11</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>4</v>
+      </c>
+      <c r="D300">
+        <v>4</v>
+      </c>
+      <c r="E300">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>12</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>13</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>9</v>
+      </c>
+      <c r="D302">
+        <v>7</v>
+      </c>
+      <c r="E302">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>15</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>3</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+      <c r="E304">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>16</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+      <c r="D305">
+        <v>3</v>
+      </c>
+      <c r="E305">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306" t="s">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>2</v>
+      </c>
+      <c r="B307" t="s">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>3</v>
+      </c>
+      <c r="B308" t="s">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+      <c r="E308">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>4</v>
+      </c>
+      <c r="B309" t="s">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>5</v>
+      </c>
+      <c r="B310" t="s">
+        <v>2</v>
+      </c>
+      <c r="C310">
+        <v>4</v>
+      </c>
+      <c r="D310">
+        <v>4</v>
+      </c>
+      <c r="E310">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>6</v>
+      </c>
+      <c r="B311" t="s">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>7</v>
+      </c>
+      <c r="B312" t="s">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
+      </c>
+      <c r="D312">
+        <v>4</v>
+      </c>
+      <c r="E312">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>8</v>
+      </c>
+      <c r="B313" t="s">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>5</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>9</v>
+      </c>
+      <c r="B314" t="s">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>11</v>
+      </c>
+      <c r="B316" t="s">
+        <v>2</v>
+      </c>
+      <c r="C316">
+        <v>4</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>12</v>
+      </c>
+      <c r="B317" t="s">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>13</v>
+      </c>
+      <c r="B318" t="s">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318">
+        <v>7</v>
+      </c>
+      <c r="E318">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>14</v>
+      </c>
+      <c r="B319" t="s">
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>6</v>
+      </c>
+      <c r="E319">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>15</v>
+      </c>
+      <c r="B320" t="s">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>8</v>
+      </c>
+      <c r="D320">
+        <v>3</v>
+      </c>
+      <c r="E320">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>16</v>
+      </c>
+      <c r="B321" t="s">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>3</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>4</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>5</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>6</v>
+      </c>
+      <c r="E326">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>6</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>7</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>8</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>10</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>11</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>12</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>13</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>9</v>
+      </c>
+      <c r="D334">
+        <v>7</v>
+      </c>
+      <c r="E334">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>14</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>15</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>16</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>3</v>
+      </c>
+      <c r="D337">
+        <v>4</v>
+      </c>
+      <c r="E337">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338" t="s">
+        <v>2</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>2</v>
+      </c>
+      <c r="B339" t="s">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>3</v>
+      </c>
+      <c r="B340" t="s">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <v>3</v>
+      </c>
+      <c r="D341">
+        <v>3</v>
+      </c>
+      <c r="E341">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>5</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>7</v>
+      </c>
+      <c r="B344" t="s">
+        <v>2</v>
+      </c>
+      <c r="C344">
+        <v>4</v>
+      </c>
+      <c r="D344">
+        <v>3</v>
+      </c>
+      <c r="E344">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>8</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>4</v>
+      </c>
+      <c r="E346">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>10</v>
+      </c>
+      <c r="B347" t="s">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>3</v>
+      </c>
+      <c r="D347">
+        <v>4</v>
+      </c>
+      <c r="E347">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>11</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>12</v>
+      </c>
+      <c r="B349" t="s">
+        <v>2</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>13</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>14</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>15</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>16</v>
+      </c>
+      <c r="B353" t="s">
+        <v>2</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>2</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>3</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>6</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>7</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>8</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>10</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>11</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>12</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>13</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>14</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>15</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>16</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>2</v>
+      </c>
+      <c r="B371" t="s">
+        <v>2</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372" t="s">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>2</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>2</v>
+      </c>
+      <c r="C374">
+        <v>3</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>6</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>7</v>
+      </c>
+      <c r="B376" t="s">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>8</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>2</v>
+      </c>
+      <c r="E378">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>10</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>11</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>12</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>13</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>14</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>15</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>16</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>1</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>2</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>3</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>4</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>5</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>6</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>7</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>8</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>9</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>10</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>11</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>12</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>13</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>14</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>15</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>16</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>1</v>
+      </c>
+      <c r="B402" t="s">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>2</v>
+      </c>
+      <c r="B403" t="s">
+        <v>2</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>3</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>4</v>
+      </c>
+      <c r="B405" t="s">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>5</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>6</v>
+      </c>
+      <c r="B407" t="s">
+        <v>2</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>7</v>
+      </c>
+      <c r="B408" t="s">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>8</v>
+      </c>
+      <c r="B409" t="s">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>9</v>
+      </c>
+      <c r="B410" t="s">
+        <v>2</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+      <c r="E410">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>10</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>11</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>12</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>13</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>14</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>15</v>
+      </c>
+      <c r="B416" t="s">
+        <v>2</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>16</v>
+      </c>
+      <c r="B417" t="s">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>1</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>2</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>3</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>4</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>5</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>6</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>7</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>8</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="E425">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>9</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>10</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>11</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>12</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>13</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>14</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>15</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>16</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>1</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>2</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>3</v>
+      </c>
+      <c r="B436" t="s">
+        <v>2</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>4</v>
+      </c>
+      <c r="B437" t="s">
+        <v>2</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>5</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>6</v>
+      </c>
+      <c r="B439" t="s">
+        <v>2</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>7</v>
+      </c>
+      <c r="B440" t="s">
+        <v>2</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>8</v>
+      </c>
+      <c r="B441" t="s">
+        <v>2</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>9</v>
+      </c>
+      <c r="B442" t="s">
+        <v>2</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>10</v>
+      </c>
+      <c r="B443" t="s">
+        <v>2</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>11</v>
+      </c>
+      <c r="B444" t="s">
+        <v>2</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>12</v>
+      </c>
+      <c r="B445" t="s">
+        <v>2</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>13</v>
+      </c>
+      <c r="B446" t="s">
+        <v>2</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>14</v>
+      </c>
+      <c r="B447" t="s">
+        <v>2</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>15</v>
+      </c>
+      <c r="B448" t="s">
+        <v>2</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>16</v>
+      </c>
+      <c r="B449" t="s">
+        <v>2</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
